--- a/document/스마트팜_정보.xlsx
+++ b/document/스마트팜_정보.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Project_Python\smartFarm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Project_Python\smartFarm\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8819B49-EFC8-4C1C-9AAB-998AD7D5D991}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B5FB49-EC2B-4443-9F1D-E6C59A7F3864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="-120" windowWidth="27195" windowHeight="16440" activeTab="2" xr2:uid="{8C763A30-E157-4AA2-BA01-B2928BE27400}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{8C763A30-E157-4AA2-BA01-B2928BE27400}"/>
   </bookViews>
   <sheets>
     <sheet name="목록" sheetId="1" r:id="rId1"/>
@@ -3279,7 +3279,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3305,7 +3305,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3444,7 +3444,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6974C47B-F336-455D-AD9A-98369C83788F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/document/스마트팜_정보.xlsx
+++ b/document/스마트팜_정보.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Project_Python\smartFarm\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B5FB49-EC2B-4443-9F1D-E6C59A7F3864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3BE2A6-33EE-4F03-8C2A-3574DF63DD01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{8C763A30-E157-4AA2-BA01-B2928BE27400}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{8C763A30-E157-4AA2-BA01-B2928BE27400}"/>
   </bookViews>
   <sheets>
     <sheet name="목록" sheetId="1" r:id="rId1"/>
     <sheet name="구조" sheetId="2" r:id="rId2"/>
     <sheet name="화면" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3243,10 +3242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CBCF23-C829-4527-91EA-90A3D5EED3E1}">
-  <dimension ref="B3:B4"/>
+  <dimension ref="B3:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3264,6 +3263,9 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3271,6 +3273,7 @@
     <hyperlink ref="B4" location="화면!A1" display="화면" xr:uid="{85114CDF-9208-4F73-8DF9-BEE3D6E49D26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3304,9 +3307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A928A4C8-75A0-411F-A3B7-DEDC59FC8015}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3438,19 +3439,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6974C47B-F336-455D-AD9A-98369C83788F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>